--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10217,6 +10217,41 @@
         <v>1814000</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1321300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10252,6 +10252,41 @@
         <v>1321300</v>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1042400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I283"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10287,6 +10287,41 @@
         <v>1042400</v>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I284" t="n">
+        <v>955700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10322,6 +10322,41 @@
         <v>955700</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I285" t="n">
+        <v>578100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I285"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10357,6 +10357,41 @@
         <v>578100</v>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1085400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10392,6 +10392,41 @@
         <v>1085400</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I287" t="n">
+        <v>2425400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10427,6 +10427,41 @@
         <v>2425400</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1053300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10462,6 +10462,41 @@
         <v>1053300</v>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I289" t="n">
+        <v>688700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10497,6 +10497,41 @@
         <v>688700</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I290" t="n">
+        <v>483400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10532,6 +10532,41 @@
         <v>483400</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1018900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I291"/>
+  <dimension ref="A1:I292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10567,6 +10567,41 @@
         <v>1018900</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1205500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I292"/>
+  <dimension ref="A1:I293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10602,6 +10602,41 @@
         <v>1205500</v>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I293" t="n">
+        <v>449200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10637,6 +10637,76 @@
         <v>449200</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I294" t="n">
+        <v>976500</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I295" t="n">
+        <v>901300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10707,6 +10707,76 @@
         <v>901300</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2274200</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1446700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10777,6 +10777,41 @@
         <v>1446700</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I298" t="n">
+        <v>885700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10812,6 +10812,41 @@
         <v>885700</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1245300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I299"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10847,6 +10847,41 @@
         <v>1245300</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2067100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I300"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10882,6 +10882,41 @@
         <v>2067100</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1010800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,6 +10917,76 @@
         <v>1010800</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I302" t="n">
+        <v>865900</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1696000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10987,6 +10987,41 @@
         <v>1696000</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1742400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11022,6 +11022,41 @@
         <v>1742400</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I305" t="n">
+        <v>686400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8504,11 +8504,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8522,28 +8522,28 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.885</v>
+        <v>0.84</v>
       </c>
       <c r="F233" t="n">
-        <v>0.895</v>
+        <v>0.84</v>
       </c>
       <c r="G233" t="n">
-        <v>0.855</v>
+        <v>0.835</v>
       </c>
       <c r="H233" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I233" t="n">
-        <v>2690200</v>
+        <v>1507700</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8557,28 +8557,28 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.86</v>
+        <v>0.835</v>
       </c>
       <c r="F234" t="n">
-        <v>0.885</v>
+        <v>0.84</v>
       </c>
       <c r="G234" t="n">
-        <v>0.85</v>
+        <v>0.835</v>
       </c>
       <c r="H234" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I234" t="n">
-        <v>1590600</v>
+        <v>1301300</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -8592,28 +8592,28 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.88</v>
+        <v>0.835</v>
       </c>
       <c r="F235" t="n">
-        <v>0.905</v>
+        <v>0.84</v>
       </c>
       <c r="G235" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="H235" t="n">
-        <v>0.895</v>
+        <v>0.835</v>
       </c>
       <c r="I235" t="n">
-        <v>4799000</v>
+        <v>1094200</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8627,28 +8627,28 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.895</v>
+        <v>0.83</v>
       </c>
       <c r="F236" t="n">
-        <v>0.9</v>
+        <v>0.835</v>
       </c>
       <c r="G236" t="n">
-        <v>0.865</v>
+        <v>0.825</v>
       </c>
       <c r="H236" t="n">
-        <v>0.87</v>
+        <v>0.825</v>
       </c>
       <c r="I236" t="n">
-        <v>2629200</v>
+        <v>1132000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -8662,28 +8662,28 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="F237" t="n">
-        <v>0.91</v>
+        <v>0.835</v>
       </c>
       <c r="G237" t="n">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="H237" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I237" t="n">
-        <v>2665300</v>
+        <v>946600</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8697,28 +8697,28 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="F238" t="n">
-        <v>0.915</v>
+        <v>0.84</v>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>0.825</v>
       </c>
       <c r="H238" t="n">
-        <v>0.91</v>
+        <v>0.835</v>
       </c>
       <c r="I238" t="n">
-        <v>3341200</v>
+        <v>1240000</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -8732,28 +8732,28 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.905</v>
+        <v>0.835</v>
       </c>
       <c r="F239" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="G239" t="n">
-        <v>0.895</v>
+        <v>0.835</v>
       </c>
       <c r="H239" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="I239" t="n">
-        <v>4061300</v>
+        <v>4594400</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8767,28 +8767,28 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.915</v>
+        <v>0.87</v>
       </c>
       <c r="F240" t="n">
-        <v>0.92</v>
+        <v>0.885</v>
       </c>
       <c r="G240" t="n">
-        <v>0.895</v>
+        <v>0.87</v>
       </c>
       <c r="H240" t="n">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="I240" t="n">
-        <v>3374800</v>
+        <v>3377900</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8802,28 +8802,28 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.915</v>
+        <v>0.875</v>
       </c>
       <c r="F241" t="n">
-        <v>0.955</v>
+        <v>0.895</v>
       </c>
       <c r="G241" t="n">
-        <v>0.915</v>
+        <v>0.875</v>
       </c>
       <c r="H241" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="I241" t="n">
-        <v>4855800</v>
+        <v>4042500</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8837,28 +8837,28 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.945</v>
+        <v>0.885</v>
       </c>
       <c r="F242" t="n">
-        <v>0.96</v>
+        <v>0.895</v>
       </c>
       <c r="G242" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.855</v>
       </c>
       <c r="H242" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I242" t="n">
-        <v>2893500</v>
+        <v>2690200</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -8872,28 +8872,28 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F243" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="G243" t="n">
-        <v>0.915</v>
+        <v>0.85</v>
       </c>
       <c r="H243" t="n">
-        <v>0.915</v>
+        <v>0.88</v>
       </c>
       <c r="I243" t="n">
-        <v>4077900</v>
+        <v>1590600</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8907,28 +8907,28 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F244" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="G244" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="H244" t="n">
-        <v>0.925</v>
+        <v>0.895</v>
       </c>
       <c r="I244" t="n">
-        <v>2397200</v>
+        <v>4799000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -8942,28 +8942,28 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.92</v>
+        <v>0.895</v>
       </c>
       <c r="F245" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G245" t="n">
-        <v>0.92</v>
+        <v>0.865</v>
       </c>
       <c r="H245" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="I245" t="n">
-        <v>2373800</v>
+        <v>2629200</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8977,28 +8977,28 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="F246" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G246" t="n">
-        <v>0.91</v>
+        <v>0.875</v>
       </c>
       <c r="H246" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="I246" t="n">
-        <v>4403300</v>
+        <v>2665300</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9012,28 +9012,28 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F247" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="G247" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="I247" t="n">
-        <v>1967000</v>
+        <v>3341200</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9047,28 +9047,28 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="F248" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="G248" t="n">
-        <v>0.91</v>
+        <v>0.895</v>
       </c>
       <c r="H248" t="n">
         <v>0.92</v>
       </c>
       <c r="I248" t="n">
-        <v>2718200</v>
+        <v>4061300</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9082,28 +9082,28 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.92</v>
+        <v>0.915</v>
       </c>
       <c r="F249" t="n">
         <v>0.92</v>
       </c>
       <c r="G249" t="n">
-        <v>0.875</v>
+        <v>0.895</v>
       </c>
       <c r="H249" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="I249" t="n">
-        <v>4259800</v>
+        <v>3374800</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9117,28 +9117,28 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.875</v>
+        <v>0.915</v>
       </c>
       <c r="F250" t="n">
-        <v>0.875</v>
+        <v>0.955</v>
       </c>
       <c r="G250" t="n">
-        <v>0.835</v>
+        <v>0.915</v>
       </c>
       <c r="H250" t="n">
-        <v>0.835</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I250" t="n">
-        <v>2020200</v>
+        <v>4855800</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9152,28 +9152,28 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.835</v>
+        <v>0.945</v>
       </c>
       <c r="F251" t="n">
-        <v>0.855</v>
+        <v>0.96</v>
       </c>
       <c r="G251" t="n">
-        <v>0.835</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="H251" t="n">
-        <v>0.845</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I251" t="n">
-        <v>3418200</v>
+        <v>2893500</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -9187,28 +9187,28 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.85</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F252" t="n">
-        <v>0.885</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>0.85</v>
+        <v>0.915</v>
       </c>
       <c r="H252" t="n">
-        <v>0.885</v>
+        <v>0.915</v>
       </c>
       <c r="I252" t="n">
-        <v>2858000</v>
+        <v>4077900</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9222,28 +9222,28 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F253" t="n">
-        <v>0.905</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G253" t="n">
-        <v>0.885</v>
+        <v>0.91</v>
       </c>
       <c r="H253" t="n">
-        <v>0.905</v>
+        <v>0.925</v>
       </c>
       <c r="I253" t="n">
-        <v>1230800</v>
+        <v>2397200</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9257,28 +9257,28 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F254" t="n">
-        <v>0.905</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G254" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="H254" t="n">
-        <v>0.895</v>
+        <v>0.93</v>
       </c>
       <c r="I254" t="n">
-        <v>1889100</v>
+        <v>2373800</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9292,28 +9292,28 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.895</v>
+        <v>0.93</v>
       </c>
       <c r="F255" t="n">
-        <v>0.905</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G255" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="H255" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I255" t="n">
-        <v>1998800</v>
+        <v>4403300</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9327,28 +9327,28 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.905</v>
+        <v>0.92</v>
       </c>
       <c r="F256" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="H256" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I256" t="n">
-        <v>1125200</v>
+        <v>1967000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9362,28 +9362,28 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.895</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F257" t="n">
-        <v>0.905</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="H257" t="n">
-        <v>0.895</v>
+        <v>0.92</v>
       </c>
       <c r="I257" t="n">
-        <v>2859900</v>
+        <v>2718200</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9397,28 +9397,28 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.895</v>
+        <v>0.92</v>
       </c>
       <c r="F258" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G258" t="n">
-        <v>0.895</v>
+        <v>0.875</v>
       </c>
       <c r="H258" t="n">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="I258" t="n">
-        <v>4729700</v>
+        <v>4259800</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9432,28 +9432,28 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="F259" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="G259" t="n">
-        <v>0.885</v>
+        <v>0.835</v>
       </c>
       <c r="H259" t="n">
-        <v>0.9</v>
+        <v>0.835</v>
       </c>
       <c r="I259" t="n">
-        <v>487400</v>
+        <v>2020200</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9467,28 +9467,28 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.905</v>
+        <v>0.835</v>
       </c>
       <c r="F260" t="n">
-        <v>0.925</v>
+        <v>0.855</v>
       </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>0.835</v>
       </c>
       <c r="H260" t="n">
-        <v>0.905</v>
+        <v>0.845</v>
       </c>
       <c r="I260" t="n">
-        <v>2231000</v>
+        <v>3418200</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -9502,28 +9502,28 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.905</v>
+        <v>0.85</v>
       </c>
       <c r="F261" t="n">
-        <v>0.915</v>
+        <v>0.885</v>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="H261" t="n">
-        <v>0.905</v>
+        <v>0.885</v>
       </c>
       <c r="I261" t="n">
-        <v>2430400</v>
+        <v>2858000</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9537,28 +9537,28 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F262" t="n">
-        <v>0.915</v>
+        <v>0.905</v>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>0.885</v>
       </c>
       <c r="H262" t="n">
-        <v>0.91</v>
+        <v>0.905</v>
       </c>
       <c r="I262" t="n">
-        <v>1077900</v>
+        <v>1230800</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9572,28 +9572,28 @@
         </is>
       </c>
       <c r="E263" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F263" t="n">
         <v>0.905</v>
       </c>
-      <c r="F263" t="n">
-        <v>0.91</v>
-      </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H263" t="n">
-        <v>0.905</v>
+        <v>0.895</v>
       </c>
       <c r="I263" t="n">
-        <v>1340500</v>
+        <v>1889100</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9607,28 +9607,28 @@
         </is>
       </c>
       <c r="E264" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H264" t="n">
         <v>0.9</v>
       </c>
-      <c r="F264" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0.905</v>
-      </c>
       <c r="I264" t="n">
-        <v>2650200</v>
+        <v>1998800</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="F265" t="n">
         <v>0.91</v>
@@ -9654,16 +9654,16 @@
         <v>0.9</v>
       </c>
       <c r="I265" t="n">
-        <v>1177600</v>
+        <v>1125200</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9677,28 +9677,28 @@
         </is>
       </c>
       <c r="E266" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F266" t="n">
         <v>0.905</v>
       </c>
-      <c r="F266" t="n">
-        <v>0.92</v>
-      </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H266" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="I266" t="n">
-        <v>2619400</v>
+        <v>2859900</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9712,28 +9712,28 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="F267" t="n">
-        <v>0.915</v>
+        <v>0.95</v>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="H267" t="n">
-        <v>0.905</v>
+        <v>0.925</v>
       </c>
       <c r="I267" t="n">
-        <v>1550300</v>
+        <v>4729700</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9747,28 +9747,28 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.91</v>
+        <v>0.925</v>
       </c>
       <c r="F268" t="n">
-        <v>0.915</v>
+        <v>0.93</v>
       </c>
       <c r="G268" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H268" t="n">
         <v>0.9</v>
       </c>
-      <c r="H268" t="n">
-        <v>0.905</v>
-      </c>
       <c r="I268" t="n">
-        <v>1081200</v>
+        <v>487400</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9782,28 +9782,28 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.91</v>
+        <v>0.905</v>
       </c>
       <c r="F269" t="n">
-        <v>0.91</v>
+        <v>0.925</v>
       </c>
       <c r="G269" t="n">
         <v>0.9</v>
       </c>
       <c r="H269" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="I269" t="n">
-        <v>1829200</v>
+        <v>2231000</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9817,28 +9817,28 @@
         </is>
       </c>
       <c r="E270" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G270" t="n">
         <v>0.9</v>
       </c>
-      <c r="F270" t="n">
+      <c r="H270" t="n">
         <v>0.905</v>
       </c>
-      <c r="G270" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0.9</v>
-      </c>
       <c r="I270" t="n">
-        <v>925900</v>
+        <v>2430400</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9852,28 +9852,28 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="F271" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G271" t="n">
         <v>0.9</v>
       </c>
-      <c r="G271" t="n">
-        <v>0.895</v>
-      </c>
       <c r="H271" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I271" t="n">
-        <v>19000</v>
+        <v>1077900</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -9887,28 +9887,28 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.885</v>
+        <v>0.905</v>
       </c>
       <c r="F272" t="n">
-        <v>0.885</v>
+        <v>0.91</v>
       </c>
       <c r="G272" t="n">
-        <v>0.855</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
-        <v>0.87</v>
+        <v>0.905</v>
       </c>
       <c r="I272" t="n">
-        <v>368200</v>
+        <v>1340500</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -9922,28 +9922,28 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F273" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G273" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="H273" t="n">
-        <v>0.86</v>
+        <v>0.905</v>
       </c>
       <c r="I273" t="n">
-        <v>190700</v>
+        <v>2650200</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -9957,28 +9957,28 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F274" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G274" t="n">
-        <v>0.865</v>
+        <v>0.9</v>
       </c>
       <c r="H274" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="I274" t="n">
-        <v>133400</v>
+        <v>1177600</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -9992,28 +9992,28 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.88</v>
+        <v>0.905</v>
       </c>
       <c r="F275" t="n">
-        <v>0.885</v>
+        <v>0.92</v>
       </c>
       <c r="G275" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="H275" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="I275" t="n">
-        <v>348200</v>
+        <v>2619400</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10027,28 +10027,28 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F276" t="n">
-        <v>0.85</v>
+        <v>0.915</v>
       </c>
       <c r="G276" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
-        <v>0.85</v>
+        <v>0.905</v>
       </c>
       <c r="I276" t="n">
-        <v>324800</v>
+        <v>1550300</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10062,28 +10062,28 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F277" t="n">
-        <v>0.885</v>
+        <v>0.915</v>
       </c>
       <c r="G277" t="n">
-        <v>0.865</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
-        <v>0.875</v>
+        <v>0.905</v>
       </c>
       <c r="I277" t="n">
-        <v>1435900</v>
+        <v>1081200</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10097,28 +10097,28 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F278" t="n">
-        <v>0.895</v>
+        <v>0.91</v>
       </c>
       <c r="G278" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="I278" t="n">
-        <v>851000</v>
+        <v>1829200</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -10132,28 +10132,28 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.895</v>
+        <v>0.9</v>
       </c>
       <c r="F279" t="n">
-        <v>0.91</v>
+        <v>0.905</v>
       </c>
       <c r="G279" t="n">
-        <v>0.895</v>
+        <v>0.885</v>
       </c>
       <c r="H279" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I279" t="n">
-        <v>508100</v>
+        <v>925900</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10167,28 +10167,28 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.915</v>
+        <v>0.895</v>
       </c>
       <c r="F280" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G280" t="n">
-        <v>0.905</v>
+        <v>0.895</v>
       </c>
       <c r="H280" t="n">
-        <v>0.915</v>
+        <v>0.9</v>
       </c>
       <c r="I280" t="n">
-        <v>2126800</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -10202,28 +10202,28 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.91</v>
+        <v>0.885</v>
       </c>
       <c r="F281" t="n">
-        <v>0.93</v>
+        <v>0.885</v>
       </c>
       <c r="G281" t="n">
-        <v>0.905</v>
+        <v>0.855</v>
       </c>
       <c r="H281" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="I281" t="n">
-        <v>1814000</v>
+        <v>368200</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10237,28 +10237,28 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F282" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G282" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="H282" t="n">
-        <v>0.925</v>
+        <v>0.86</v>
       </c>
       <c r="I282" t="n">
-        <v>1321300</v>
+        <v>190700</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10272,28 +10272,28 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.925</v>
+        <v>0.87</v>
       </c>
       <c r="F283" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G283" t="n">
-        <v>0.92</v>
+        <v>0.865</v>
       </c>
       <c r="H283" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I283" t="n">
-        <v>1042400</v>
+        <v>133400</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10307,28 +10307,28 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.925</v>
+        <v>0.88</v>
       </c>
       <c r="F284" t="n">
-        <v>0.93</v>
+        <v>0.885</v>
       </c>
       <c r="G284" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="H284" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="I284" t="n">
-        <v>955700</v>
+        <v>348200</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10342,28 +10342,28 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.925</v>
+        <v>0.83</v>
       </c>
       <c r="F285" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="G285" t="n">
-        <v>0.92</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H285" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="I285" t="n">
-        <v>578100</v>
+        <v>324800</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -10377,28 +10377,28 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.925</v>
+        <v>0.88</v>
       </c>
       <c r="F286" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="G286" t="n">
-        <v>0.92</v>
+        <v>0.865</v>
       </c>
       <c r="H286" t="n">
-        <v>0.93</v>
+        <v>0.875</v>
       </c>
       <c r="I286" t="n">
-        <v>1085400</v>
+        <v>1435900</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10412,28 +10412,28 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F287" t="n">
-        <v>0.945</v>
+        <v>0.895</v>
       </c>
       <c r="G287" t="n">
-        <v>0.925</v>
+        <v>0.88</v>
       </c>
       <c r="H287" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.895</v>
       </c>
       <c r="I287" t="n">
-        <v>2425400</v>
+        <v>851000</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10447,28 +10447,28 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.845</v>
+        <v>0.895</v>
       </c>
       <c r="F288" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G288" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.895</v>
       </c>
       <c r="H288" t="n">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="I288" t="n">
-        <v>1053300</v>
+        <v>508100</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -10482,28 +10482,28 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.825</v>
+        <v>0.915</v>
       </c>
       <c r="F289" t="n">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="G289" t="n">
-        <v>0.8</v>
+        <v>0.905</v>
       </c>
       <c r="H289" t="n">
-        <v>0.82</v>
+        <v>0.915</v>
       </c>
       <c r="I289" t="n">
-        <v>688700</v>
+        <v>2126800</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10517,28 +10517,28 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="F290" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="G290" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.905</v>
       </c>
       <c r="H290" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I290" t="n">
-        <v>483400</v>
+        <v>1814000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10552,28 +10552,28 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.805</v>
+        <v>0.93</v>
       </c>
       <c r="F291" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G291" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="H291" t="n">
-        <v>0.79</v>
+        <v>0.925</v>
       </c>
       <c r="I291" t="n">
-        <v>1018900</v>
+        <v>1321300</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10587,28 +10587,28 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.785</v>
+        <v>0.925</v>
       </c>
       <c r="F292" t="n">
-        <v>0.85</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G292" t="n">
-        <v>0.785</v>
+        <v>0.92</v>
       </c>
       <c r="H292" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="I292" t="n">
-        <v>1205500</v>
+        <v>1042400</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -10622,28 +10622,28 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.84</v>
+        <v>0.925</v>
       </c>
       <c r="F293" t="n">
-        <v>0.865</v>
+        <v>0.93</v>
       </c>
       <c r="G293" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="H293" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="I293" t="n">
-        <v>449200</v>
+        <v>955700</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10657,28 +10657,28 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.86</v>
+        <v>0.925</v>
       </c>
       <c r="F294" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="G294" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="H294" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="I294" t="n">
-        <v>976500</v>
+        <v>578100</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10692,28 +10692,28 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.85</v>
+        <v>0.925</v>
       </c>
       <c r="F295" t="n">
-        <v>0.87</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G295" t="n">
-        <v>0.825</v>
+        <v>0.92</v>
       </c>
       <c r="H295" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="I295" t="n">
-        <v>901300</v>
+        <v>1085400</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10727,28 +10727,28 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.865</v>
+        <v>0.93</v>
       </c>
       <c r="F296" t="n">
-        <v>0.88</v>
+        <v>0.945</v>
       </c>
       <c r="G296" t="n">
-        <v>0.82</v>
+        <v>0.925</v>
       </c>
       <c r="H296" t="n">
-        <v>0.82</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I296" t="n">
-        <v>2274200</v>
+        <v>2425400</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10762,28 +10762,28 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.83</v>
+        <v>0.845</v>
       </c>
       <c r="F297" t="n">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
       <c r="G297" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="H297" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="I297" t="n">
-        <v>1446700</v>
+        <v>1053300</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10797,28 +10797,28 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="F298" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="G298" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H298" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I298" t="n">
-        <v>885700</v>
+        <v>688700</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10832,28 +10832,28 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F299" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="G299" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H299" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="I299" t="n">
-        <v>1245300</v>
+        <v>483400</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -10870,25 +10870,25 @@
         <v>0.805</v>
       </c>
       <c r="F300" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G300" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="H300" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="I300" t="n">
-        <v>2067100</v>
+        <v>1018900</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10902,28 +10902,28 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.82</v>
+        <v>0.785</v>
       </c>
       <c r="F301" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="G301" t="n">
-        <v>0.72</v>
+        <v>0.785</v>
       </c>
       <c r="H301" t="n">
-        <v>0.725</v>
+        <v>0.85</v>
       </c>
       <c r="I301" t="n">
-        <v>1010800</v>
+        <v>1205500</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10937,28 +10937,28 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.715</v>
+        <v>0.84</v>
       </c>
       <c r="F302" t="n">
-        <v>0.745</v>
+        <v>0.865</v>
       </c>
       <c r="G302" t="n">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="H302" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="I302" t="n">
-        <v>865900</v>
+        <v>449200</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10972,28 +10972,28 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.725</v>
+        <v>0.86</v>
       </c>
       <c r="F303" t="n">
-        <v>0.745</v>
+        <v>0.87</v>
       </c>
       <c r="G303" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="H303" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="I303" t="n">
-        <v>1696000</v>
+        <v>976500</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11007,53 +11007,368 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.695</v>
+        <v>0.85</v>
       </c>
       <c r="F304" t="n">
-        <v>0.695</v>
+        <v>0.87</v>
       </c>
       <c r="G304" t="n">
-        <v>0.65</v>
+        <v>0.825</v>
       </c>
       <c r="H304" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="I304" t="n">
-        <v>1742400</v>
+        <v>901300</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2274200</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1446700</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I307" t="n">
+        <v>885700</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1245300</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2067100</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1010800</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I311" t="n">
+        <v>865900</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1696000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1742400</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B314" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>5289</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>TECHBND</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
         <v>0.65</v>
       </c>
-      <c r="F305" t="n">
+      <c r="F314" t="n">
         <v>0.65</v>
       </c>
-      <c r="G305" t="n">
+      <c r="G314" t="n">
         <v>0.55</v>
       </c>
-      <c r="H305" t="n">
+      <c r="H314" t="n">
         <v>0.65</v>
       </c>
-      <c r="I305" t="n">
+      <c r="I314" t="n">
         <v>686400</v>
       </c>
     </row>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11372,6 +11372,41 @@
         <v>686400</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I315" t="n">
+        <v>658500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I315"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11407,6 +11407,41 @@
         <v>658500</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1612400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I316"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11442,6 +11442,41 @@
         <v>1612400</v>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I317" t="n">
+        <v>942000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11477,6 +11477,41 @@
         <v>942000</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1929000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I318"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11512,6 +11512,41 @@
         <v>1929000</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I319" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11547,6 +11547,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I320" t="n">
+        <v>393500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11582,6 +11582,41 @@
         <v>393500</v>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I321" t="n">
+        <v>196700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11617,6 +11617,41 @@
         <v>196700</v>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I322" t="n">
+        <v>18900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11652,6 +11652,41 @@
         <v>18900</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1846200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11687,6 +11687,41 @@
         <v>1846200</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I324" t="n">
+        <v>219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11722,6 +11722,41 @@
         <v>219100</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I325" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I325"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11757,6 +11757,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I326" t="n">
+        <v>55300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11792,6 +11792,41 @@
         <v>55300</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I327" t="n">
+        <v>286700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11827,6 +11827,41 @@
         <v>286700</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I328" t="n">
+        <v>39500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11862,6 +11862,41 @@
         <v>39500</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I329" t="n">
+        <v>49600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11897,6 +11897,41 @@
         <v>49600</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I330" t="n">
+        <v>27400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11932,6 +11932,41 @@
         <v>27400</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I331" t="n">
+        <v>27900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I331"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11967,6 +11967,41 @@
         <v>27900</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I332" t="n">
+        <v>1021900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12002,6 +12002,41 @@
         <v>1021900</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I333" t="n">
+        <v>167800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I333"/>
+  <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12037,6 +12037,41 @@
         <v>167800</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I334" t="n">
+        <v>88300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12072,6 +12072,41 @@
         <v>88300</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I335" t="n">
+        <v>14800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I335"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12107,6 +12107,41 @@
         <v>14800</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I336" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12142,6 +12142,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I337" t="n">
+        <v>92300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12177,6 +12177,41 @@
         <v>92300</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I338" t="n">
+        <v>116700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12212,6 +12212,41 @@
         <v>116700</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I339" t="n">
+        <v>112600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12247,6 +12247,76 @@
         <v>112600</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I340" t="n">
+        <v>171700</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I341" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12317,6 +12317,41 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I342" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12352,6 +12352,111 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I343" t="n">
+        <v>117600</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I344" t="n">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I345" t="n">
+        <v>183200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12457,6 +12457,41 @@
         <v>183200</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I346" t="n">
+        <v>186500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12492,6 +12492,41 @@
         <v>186500</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I347" t="n">
+        <v>44800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5289.xlsx
+++ b/data/5289.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12527,6 +12527,111 @@
         <v>44800</v>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I348" t="n">
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I349" t="n">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>TECHBND</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I350" t="n">
+        <v>740400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
